--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="Rf83a7ed7707e49f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R4a22e9db46584921"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R06b4808be00d47d5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3f4d4ea19e634de9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R62bef4fd95ec40b5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R853a086c413f47e2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R4a22e9db46584921"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R6b6078b41c944037"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3f4d4ea19e634de9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcfeff4e32c074088"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R853a086c413f47e2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd32f6fe47ef444eb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R6b6078b41c944037"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R50561c6f8a854cc0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcfeff4e32c074088"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb4699dcd8d73454f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd32f6fe47ef444eb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R77eacc4c3ebd4bdc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R50561c6f8a854cc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="Rf776631fbcae4a3c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb4699dcd8d73454f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R790aa5d1952040ea"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R77eacc4c3ebd4bdc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6fb59dcd838b449d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="Rf776631fbcae4a3c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R9622a77001be4757"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R790aa5d1952040ea"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R382b04f8e0da4ed6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6fb59dcd838b449d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R96314d46ee7d439d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R9622a77001be4757"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="Ra0334e25fefd432b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R382b04f8e0da4ed6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5958685effbf488f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R96314d46ee7d439d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0620fb1098d44294"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="Ra0334e25fefd432b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R2c64b64ad7c44f77"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5958685effbf488f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0504d187f9494736"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0620fb1098d44294"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R54ad02b7373c43e3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R2c64b64ad7c44f77"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R17ddce3a609b41f1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0504d187f9494736"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbca52378b2b7466f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R54ad02b7373c43e3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3c63cab5257f473a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R17ddce3a609b41f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R2bac662fa87d4103"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbca52378b2b7466f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R543191e19a2b4446"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3c63cab5257f473a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R731a7717d71a4d62"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R2bac662fa87d4103"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="Re9dea71624884764"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R543191e19a2b4446"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0d8aa65a75184d8b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R731a7717d71a4d62"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0be7e3af4a7e433f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="Re9dea71624884764"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R8323e9cb515c4e1e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0d8aa65a75184d8b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R90aed32d022b4e20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0be7e3af4a7e433f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R57f397a4932547b6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R8323e9cb515c4e1e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="Rdf19d9f1abd646ee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R90aed32d022b4e20"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R717c372989344d26"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R57f397a4932547b6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde3f7e09a16d48b8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/091_LineChartMultipleSeriesWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="Rdf19d9f1abd646ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics Data" sheetId="1" r:id="R9643568d148447e1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -215,7 +215,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R717c372989344d26"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f5bfa92b0144e8a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -316,6 +316,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde3f7e09a16d48b8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra36bd49c826f4b24"/>
 </x:worksheet>
 </file>